--- a/Transformer/result/wlp_transformer/daqingyoutian_A_lstm_DEN_result.xlsx
+++ b/Transformer/result/wlp_transformer/daqingyoutian_A_lstm_DEN_result.xlsx
@@ -455,7 +455,7 @@
         <v>1104.55</v>
       </c>
       <c r="B2" t="n">
-        <v>2.274525880813599</v>
+        <v>2.268283605575562</v>
       </c>
       <c r="C2" t="n">
         <v>2.263</v>
@@ -466,7 +466,7 @@
         <v>1104.6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.274900674819946</v>
+        <v>2.269619941711426</v>
       </c>
       <c r="C3" t="n">
         <v>2.256</v>
@@ -477,7 +477,7 @@
         <v>1104.65</v>
       </c>
       <c r="B4" t="n">
-        <v>2.272056341171265</v>
+        <v>2.269201278686523</v>
       </c>
       <c r="C4" t="n">
         <v>2.253</v>
@@ -488,7 +488,7 @@
         <v>1104.7</v>
       </c>
       <c r="B5" t="n">
-        <v>2.270144701004028</v>
+        <v>2.268523693084717</v>
       </c>
       <c r="C5" t="n">
         <v>2.26</v>
@@ -499,7 +499,7 @@
         <v>1104.75</v>
       </c>
       <c r="B6" t="n">
-        <v>2.266765117645264</v>
+        <v>2.266805171966553</v>
       </c>
       <c r="C6" t="n">
         <v>2.271</v>
@@ -510,7 +510,7 @@
         <v>1104.8</v>
       </c>
       <c r="B7" t="n">
-        <v>2.269945621490479</v>
+        <v>2.267632007598877</v>
       </c>
       <c r="C7" t="n">
         <v>2.268</v>
@@ -521,7 +521,7 @@
         <v>1104.85</v>
       </c>
       <c r="B8" t="n">
-        <v>2.281131267547607</v>
+        <v>2.273109436035156</v>
       </c>
       <c r="C8" t="n">
         <v>2.259</v>
@@ -532,7 +532,7 @@
         <v>1104.9</v>
       </c>
       <c r="B9" t="n">
-        <v>2.284514427185059</v>
+        <v>2.276819944381714</v>
       </c>
       <c r="C9" t="n">
         <v>2.235</v>
@@ -543,7 +543,7 @@
         <v>1104.95</v>
       </c>
       <c r="B10" t="n">
-        <v>2.273322105407715</v>
+        <v>2.273109436035156</v>
       </c>
       <c r="C10" t="n">
         <v>2.21</v>
@@ -554,7 +554,7 @@
         <v>1105</v>
       </c>
       <c r="B11" t="n">
-        <v>2.243435382843018</v>
+        <v>2.257501602172852</v>
       </c>
       <c r="C11" t="n">
         <v>2.178</v>
@@ -565,7 +565,7 @@
         <v>1105.05</v>
       </c>
       <c r="B12" t="n">
-        <v>2.204522848129272</v>
+        <v>2.232015609741211</v>
       </c>
       <c r="C12" t="n">
         <v>2.142</v>
@@ -576,7 +576,7 @@
         <v>1105.1</v>
       </c>
       <c r="B13" t="n">
-        <v>2.17033863067627</v>
+        <v>2.20433235168457</v>
       </c>
       <c r="C13" t="n">
         <v>2.108</v>
@@ -587,7 +587,7 @@
         <v>1105.15</v>
       </c>
       <c r="B14" t="n">
-        <v>2.145708322525024</v>
+        <v>2.1799635887146</v>
       </c>
       <c r="C14" t="n">
         <v>2.086</v>
@@ -598,7 +598,7 @@
         <v>1105.2</v>
       </c>
       <c r="B15" t="n">
-        <v>2.121341228485107</v>
+        <v>2.156165838241577</v>
       </c>
       <c r="C15" t="n">
         <v>2.072</v>
@@ -609,7 +609,7 @@
         <v>1105.25</v>
       </c>
       <c r="B16" t="n">
-        <v>2.105835676193237</v>
+        <v>2.138633966445923</v>
       </c>
       <c r="C16" t="n">
         <v>2.07</v>
@@ -620,7 +620,7 @@
         <v>1105.3</v>
       </c>
       <c r="B17" t="n">
-        <v>2.097572565078735</v>
+        <v>2.126957416534424</v>
       </c>
       <c r="C17" t="n">
         <v>2.065</v>
@@ -631,7 +631,7 @@
         <v>1105.35</v>
       </c>
       <c r="B18" t="n">
-        <v>2.089739322662354</v>
+        <v>2.117816209793091</v>
       </c>
       <c r="C18" t="n">
         <v>2.06</v>
@@ -642,7 +642,7 @@
         <v>1105.4</v>
       </c>
       <c r="B19" t="n">
-        <v>2.081099510192871</v>
+        <v>2.10966420173645</v>
       </c>
       <c r="C19" t="n">
         <v>2.058</v>
@@ -653,7 +653,7 @@
         <v>1105.45</v>
       </c>
       <c r="B20" t="n">
-        <v>2.076740264892578</v>
+        <v>2.103848695755005</v>
       </c>
       <c r="C20" t="n">
         <v>2.063</v>
@@ -664,7 +664,7 @@
         <v>1105.5</v>
       </c>
       <c r="B21" t="n">
-        <v>2.073026657104492</v>
+        <v>2.098743677139282</v>
       </c>
       <c r="C21" t="n">
         <v>2.078</v>
@@ -675,7 +675,7 @@
         <v>1105.55</v>
       </c>
       <c r="B22" t="n">
-        <v>2.07235312461853</v>
+        <v>2.095129489898682</v>
       </c>
       <c r="C22" t="n">
         <v>2.096</v>
@@ -686,7 +686,7 @@
         <v>1105.6</v>
       </c>
       <c r="B23" t="n">
-        <v>2.076777458190918</v>
+        <v>2.094099044799805</v>
       </c>
       <c r="C23" t="n">
         <v>2.106</v>
@@ -697,7 +697,7 @@
         <v>1105.65</v>
       </c>
       <c r="B24" t="n">
-        <v>2.086251497268677</v>
+        <v>2.095831871032715</v>
       </c>
       <c r="C24" t="n">
         <v>2.11</v>
@@ -708,7 +708,7 @@
         <v>1105.7</v>
       </c>
       <c r="B25" t="n">
-        <v>2.10208797454834</v>
+        <v>2.101105928421021</v>
       </c>
       <c r="C25" t="n">
         <v>2.105</v>
@@ -719,7 +719,7 @@
         <v>1105.75</v>
       </c>
       <c r="B26" t="n">
-        <v>2.118027687072754</v>
+        <v>2.107770442962646</v>
       </c>
       <c r="C26" t="n">
         <v>2.095</v>
@@ -730,7 +730,7 @@
         <v>1105.8</v>
       </c>
       <c r="B27" t="n">
-        <v>2.12213659286499</v>
+        <v>2.110724687576294</v>
       </c>
       <c r="C27" t="n">
         <v>2.094</v>
@@ -741,7 +741,7 @@
         <v>1105.85</v>
       </c>
       <c r="B28" t="n">
-        <v>2.123522043228149</v>
+        <v>2.11241340637207</v>
       </c>
       <c r="C28" t="n">
         <v>2.099</v>
@@ -752,7 +752,7 @@
         <v>1105.9</v>
       </c>
       <c r="B29" t="n">
-        <v>2.12578296661377</v>
+        <v>2.114615917205811</v>
       </c>
       <c r="C29" t="n">
         <v>2.107</v>
@@ -763,7 +763,7 @@
         <v>1105.95</v>
       </c>
       <c r="B30" t="n">
-        <v>2.139759302139282</v>
+        <v>2.122174978256226</v>
       </c>
       <c r="C30" t="n">
         <v>2.113</v>
@@ -774,7 +774,7 @@
         <v>1106</v>
       </c>
       <c r="B31" t="n">
-        <v>2.15839958190918</v>
+        <v>2.133317947387695</v>
       </c>
       <c r="C31" t="n">
         <v>2.108</v>
@@ -785,7 +785,7 @@
         <v>1106.05</v>
       </c>
       <c r="B32" t="n">
-        <v>2.155364513397217</v>
+        <v>2.136817455291748</v>
       </c>
       <c r="C32" t="n">
         <v>2.106</v>
@@ -796,7 +796,7 @@
         <v>1106.1</v>
       </c>
       <c r="B33" t="n">
-        <v>2.133447408676147</v>
+        <v>2.130732297897339</v>
       </c>
       <c r="C33" t="n">
         <v>2.111</v>
@@ -807,7 +807,7 @@
         <v>1106.15</v>
       </c>
       <c r="B34" t="n">
-        <v>2.115272045135498</v>
+        <v>2.122957229614258</v>
       </c>
       <c r="C34" t="n">
         <v>2.136</v>
@@ -818,7 +818,7 @@
         <v>1106.2</v>
       </c>
       <c r="B35" t="n">
-        <v>2.128294944763184</v>
+        <v>2.126463413238525</v>
       </c>
       <c r="C35" t="n">
         <v>2.174</v>
@@ -829,7 +829,7 @@
         <v>1106.25</v>
       </c>
       <c r="B36" t="n">
-        <v>2.174534320831299</v>
+        <v>2.14500904083252</v>
       </c>
       <c r="C36" t="n">
         <v>2.216</v>
@@ -840,7 +840,7 @@
         <v>1106.3</v>
       </c>
       <c r="B37" t="n">
-        <v>2.234297513961792</v>
+        <v>2.175200939178467</v>
       </c>
       <c r="C37" t="n">
         <v>2.253</v>
@@ -851,7 +851,7 @@
         <v>1106.35</v>
       </c>
       <c r="B38" t="n">
-        <v>2.272546768188477</v>
+        <v>2.204466342926025</v>
       </c>
       <c r="C38" t="n">
         <v>2.273</v>
@@ -862,7 +862,7 @@
         <v>1106.4</v>
       </c>
       <c r="B39" t="n">
-        <v>2.297533988952637</v>
+        <v>2.230578899383545</v>
       </c>
       <c r="C39" t="n">
         <v>2.272</v>
@@ -873,7 +873,7 @@
         <v>1106.45</v>
       </c>
       <c r="B40" t="n">
-        <v>2.311066150665283</v>
+        <v>2.251490116119385</v>
       </c>
       <c r="C40" t="n">
         <v>2.263</v>
@@ -884,7 +884,7 @@
         <v>1106.5</v>
       </c>
       <c r="B41" t="n">
-        <v>2.31561017036438</v>
+        <v>2.266392707824707</v>
       </c>
       <c r="C41" t="n">
         <v>2.241</v>
@@ -895,7 +895,7 @@
         <v>1106.55</v>
       </c>
       <c r="B42" t="n">
-        <v>2.316634654998779</v>
+        <v>2.276729583740234</v>
       </c>
       <c r="C42" t="n">
         <v>2.233</v>
@@ -906,7 +906,7 @@
         <v>1106.6</v>
       </c>
       <c r="B43" t="n">
-        <v>2.309963941574097</v>
+        <v>2.280872106552124</v>
       </c>
       <c r="C43" t="n">
         <v>2.225</v>
@@ -917,7 +917,7 @@
         <v>1106.65</v>
       </c>
       <c r="B44" t="n">
-        <v>2.305945873260498</v>
+        <v>2.282788276672363</v>
       </c>
       <c r="C44" t="n">
         <v>2.226</v>
@@ -928,7 +928,7 @@
         <v>1106.7</v>
       </c>
       <c r="B45" t="n">
-        <v>2.303659200668335</v>
+        <v>2.284016609191895</v>
       </c>
       <c r="C45" t="n">
         <v>2.223</v>
@@ -939,7 +939,7 @@
         <v>1106.75</v>
       </c>
       <c r="B46" t="n">
-        <v>2.307685375213623</v>
+        <v>2.287069797515869</v>
       </c>
       <c r="C46" t="n">
         <v>2.225</v>
@@ -950,7 +950,7 @@
         <v>1106.8</v>
       </c>
       <c r="B47" t="n">
-        <v>2.311549186706543</v>
+        <v>2.291007995605469</v>
       </c>
       <c r="C47" t="n">
         <v>2.226</v>
@@ -961,7 +961,7 @@
         <v>1106.85</v>
       </c>
       <c r="B48" t="n">
-        <v>2.309372901916504</v>
+        <v>2.29288911819458</v>
       </c>
       <c r="C48" t="n">
         <v>2.233</v>
@@ -972,7 +972,7 @@
         <v>1106.9</v>
       </c>
       <c r="B49" t="n">
-        <v>2.297206163406372</v>
+        <v>2.289499282836914</v>
       </c>
       <c r="C49" t="n">
         <v>2.236</v>
@@ -983,7 +983,7 @@
         <v>1106.95</v>
       </c>
       <c r="B50" t="n">
-        <v>2.288087368011475</v>
+        <v>2.285211086273193</v>
       </c>
       <c r="C50" t="n">
         <v>2.237</v>
@@ -994,7 +994,7 @@
         <v>1107</v>
       </c>
       <c r="B51" t="n">
-        <v>2.283626556396484</v>
+        <v>2.282286167144775</v>
       </c>
       <c r="C51" t="n">
         <v>2.236</v>
@@ -1005,7 +1005,7 @@
         <v>1107.05</v>
       </c>
       <c r="B52" t="n">
-        <v>2.277292728424072</v>
+        <v>2.278415679931641</v>
       </c>
       <c r="C52" t="n">
         <v>2.23</v>
@@ -1016,7 +1016,7 @@
         <v>1107.1</v>
       </c>
       <c r="B53" t="n">
-        <v>2.269636869430542</v>
+        <v>2.273147583007812</v>
       </c>
       <c r="C53" t="n">
         <v>2.218</v>
@@ -1027,7 +1027,7 @@
         <v>1107.15</v>
       </c>
       <c r="B54" t="n">
-        <v>2.266659259796143</v>
+        <v>2.269531965255737</v>
       </c>
       <c r="C54" t="n">
         <v>2.196</v>
@@ -1038,7 +1038,7 @@
         <v>1107.2</v>
       </c>
       <c r="B55" t="n">
-        <v>2.264343500137329</v>
+        <v>2.266914844512939</v>
       </c>
       <c r="C55" t="n">
         <v>2.176</v>
@@ -1049,7 +1049,7 @@
         <v>1107.25</v>
       </c>
       <c r="B56" t="n">
-        <v>2.262004852294922</v>
+        <v>2.264749526977539</v>
       </c>
       <c r="C56" t="n">
         <v>2.158</v>
@@ -1060,7 +1060,7 @@
         <v>1107.3</v>
       </c>
       <c r="B57" t="n">
-        <v>2.254224300384521</v>
+        <v>2.260128974914551</v>
       </c>
       <c r="C57" t="n">
         <v>2.158</v>
@@ -1071,7 +1071,7 @@
         <v>1107.35</v>
       </c>
       <c r="B58" t="n">
-        <v>2.250585079193115</v>
+        <v>2.256685256958008</v>
       </c>
       <c r="C58" t="n">
         <v>2.165</v>
@@ -1082,7 +1082,7 @@
         <v>1107.4</v>
       </c>
       <c r="B59" t="n">
-        <v>2.253432512283325</v>
+        <v>2.256816625595093</v>
       </c>
       <c r="C59" t="n">
         <v>2.178</v>
@@ -1093,7 +1093,7 @@
         <v>1107.45</v>
       </c>
       <c r="B60" t="n">
-        <v>2.256597757339478</v>
+        <v>2.258286476135254</v>
       </c>
       <c r="C60" t="n">
         <v>2.192</v>
@@ -1104,7 +1104,7 @@
         <v>1107.5</v>
       </c>
       <c r="B61" t="n">
-        <v>2.256011009216309</v>
+        <v>2.258431911468506</v>
       </c>
       <c r="C61" t="n">
         <v>2.195</v>
@@ -1115,7 +1115,7 @@
         <v>1107.55</v>
       </c>
       <c r="B62" t="n">
-        <v>2.262478828430176</v>
+        <v>2.261834144592285</v>
       </c>
       <c r="C62" t="n">
         <v>2.203</v>
@@ -1126,7 +1126,7 @@
         <v>1107.6</v>
       </c>
       <c r="B63" t="n">
-        <v>2.277590990066528</v>
+        <v>2.271115064620972</v>
       </c>
       <c r="C63" t="n">
         <v>2.204</v>
@@ -1137,7 +1137,7 @@
         <v>1107.65</v>
       </c>
       <c r="B64" t="n">
-        <v>2.285543203353882</v>
+        <v>2.279538631439209</v>
       </c>
       <c r="C64" t="n">
         <v>2.21</v>
@@ -1148,7 +1148,7 @@
         <v>1107.7</v>
       </c>
       <c r="B65" t="n">
-        <v>2.284130811691284</v>
+        <v>2.283267021179199</v>
       </c>
       <c r="C65" t="n">
         <v>2.221</v>
@@ -1159,7 +1159,7 @@
         <v>1107.75</v>
       </c>
       <c r="B66" t="n">
-        <v>2.28102707862854</v>
+        <v>2.284278154373169</v>
       </c>
       <c r="C66" t="n">
         <v>2.231</v>
@@ -1170,7 +1170,7 @@
         <v>1107.8</v>
       </c>
       <c r="B67" t="n">
-        <v>2.280436515808105</v>
+        <v>2.28526759147644</v>
       </c>
       <c r="C67" t="n">
         <v>2.239</v>
@@ -1181,7 +1181,7 @@
         <v>1107.85</v>
       </c>
       <c r="B68" t="n">
-        <v>2.279988288879395</v>
+        <v>2.286025047302246</v>
       </c>
       <c r="C68" t="n">
         <v>2.234</v>
@@ -1192,7 +1192,7 @@
         <v>1107.9</v>
       </c>
       <c r="B69" t="n">
-        <v>2.273834466934204</v>
+        <v>2.283424615859985</v>
       </c>
       <c r="C69" t="n">
         <v>2.226</v>
@@ -1203,7 +1203,7 @@
         <v>1107.95</v>
       </c>
       <c r="B70" t="n">
-        <v>2.278994083404541</v>
+        <v>2.284924268722534</v>
       </c>
       <c r="C70" t="n">
         <v>2.214</v>
@@ -1214,7 +1214,7 @@
         <v>1108</v>
       </c>
       <c r="B71" t="n">
-        <v>2.294954299926758</v>
+        <v>2.292962312698364</v>
       </c>
       <c r="C71" t="n">
         <v>2.211</v>
@@ -1225,7 +1225,7 @@
         <v>1108.05</v>
       </c>
       <c r="B72" t="n">
-        <v>2.289618968963623</v>
+        <v>2.292953491210938</v>
       </c>
       <c r="C72" t="n">
         <v>2.219</v>
@@ -1236,7 +1236,7 @@
         <v>1108.1</v>
       </c>
       <c r="B73" t="n">
-        <v>2.277777910232544</v>
+        <v>2.286511659622192</v>
       </c>
       <c r="C73" t="n">
         <v>2.226</v>
@@ -1247,7 +1247,7 @@
         <v>1108.15</v>
       </c>
       <c r="B74" t="n">
-        <v>2.270344257354736</v>
+        <v>2.279719352722168</v>
       </c>
       <c r="C74" t="n">
         <v>2.231</v>
@@ -1258,7 +1258,7 @@
         <v>1108.2</v>
       </c>
       <c r="B75" t="n">
-        <v>2.26337456703186</v>
+        <v>2.273011684417725</v>
       </c>
       <c r="C75" t="n">
         <v>2.213</v>
@@ -1269,7 +1269,7 @@
         <v>1108.25</v>
       </c>
       <c r="B76" t="n">
-        <v>2.256988763809204</v>
+        <v>2.266543626785278</v>
       </c>
       <c r="C76" t="n">
         <v>2.193</v>
@@ -1280,7 +1280,7 @@
         <v>1108.3</v>
       </c>
       <c r="B77" t="n">
-        <v>2.259238958358765</v>
+        <v>2.264575004577637</v>
       </c>
       <c r="C77" t="n">
         <v>2.18</v>
@@ -1291,7 +1291,7 @@
         <v>1108.35</v>
       </c>
       <c r="B78" t="n">
-        <v>2.270234107971191</v>
+        <v>2.268904209136963</v>
       </c>
       <c r="C78" t="n">
         <v>2.191</v>
@@ -1302,7 +1302,7 @@
         <v>1108.4</v>
       </c>
       <c r="B79" t="n">
-        <v>2.276769876480103</v>
+        <v>2.273447275161743</v>
       </c>
       <c r="C79" t="n">
         <v>2.22</v>
@@ -1313,7 +1313,7 @@
         <v>1108.45</v>
       </c>
       <c r="B80" t="n">
-        <v>2.280506372451782</v>
+        <v>2.276938438415527</v>
       </c>
       <c r="C80" t="n">
         <v>2.251</v>
@@ -1324,7 +1324,7 @@
         <v>1108.5</v>
       </c>
       <c r="B81" t="n">
-        <v>2.288700580596924</v>
+        <v>2.282168626785278</v>
       </c>
       <c r="C81" t="n">
         <v>2.277</v>
@@ -1335,7 +1335,7 @@
         <v>1108.55</v>
       </c>
       <c r="B82" t="n">
-        <v>2.293076515197754</v>
+        <v>2.286307096481323</v>
       </c>
       <c r="C82" t="n">
         <v>2.293</v>
@@ -1346,7 +1346,7 @@
         <v>1108.6</v>
       </c>
       <c r="B83" t="n">
-        <v>2.290889263153076</v>
+        <v>2.287511348724365</v>
       </c>
       <c r="C83" t="n">
         <v>2.305</v>
@@ -1357,7 +1357,7 @@
         <v>1108.65</v>
       </c>
       <c r="B84" t="n">
-        <v>2.285258531570435</v>
+        <v>2.286172866821289</v>
       </c>
       <c r="C84" t="n">
         <v>2.31</v>
@@ -1368,7 +1368,7 @@
         <v>1108.7</v>
       </c>
       <c r="B85" t="n">
-        <v>2.28104305267334</v>
+        <v>2.284336805343628</v>
       </c>
       <c r="C85" t="n">
         <v>2.319</v>
@@ -1379,7 +1379,7 @@
         <v>1108.75</v>
       </c>
       <c r="B86" t="n">
-        <v>2.286622762680054</v>
+        <v>2.286545515060425</v>
       </c>
       <c r="C86" t="n">
         <v>2.328</v>
@@ -1390,7 +1390,7 @@
         <v>1108.8</v>
       </c>
       <c r="B87" t="n">
-        <v>2.292134761810303</v>
+        <v>2.289898872375488</v>
       </c>
       <c r="C87" t="n">
         <v>2.337</v>
@@ -1401,7 +1401,7 @@
         <v>1108.85</v>
       </c>
       <c r="B88" t="n">
-        <v>2.297904253005981</v>
+        <v>2.294053554534912</v>
       </c>
       <c r="C88" t="n">
         <v>2.342</v>
@@ -1412,7 +1412,7 @@
         <v>1108.9</v>
       </c>
       <c r="B89" t="n">
-        <v>2.302490711212158</v>
+        <v>2.298429250717163</v>
       </c>
       <c r="C89" t="n">
         <v>2.35</v>
@@ -1423,7 +1423,7 @@
         <v>1108.95</v>
       </c>
       <c r="B90" t="n">
-        <v>2.297749996185303</v>
+        <v>2.298352241516113</v>
       </c>
       <c r="C90" t="n">
         <v>2.353</v>
@@ -1434,7 +1434,7 @@
         <v>1109</v>
       </c>
       <c r="B91" t="n">
-        <v>2.296376466751099</v>
+        <v>2.297461986541748</v>
       </c>
       <c r="C91" t="n">
         <v>2.354</v>
@@ -1445,7 +1445,7 @@
         <v>1109.05</v>
       </c>
       <c r="B92" t="n">
-        <v>2.321301698684692</v>
+        <v>2.308284521102905</v>
       </c>
       <c r="C92" t="n">
         <v>2.357</v>
@@ -1456,7 +1456,7 @@
         <v>1109.1</v>
       </c>
       <c r="B93" t="n">
-        <v>2.346006870269775</v>
+        <v>2.323782920837402</v>
       </c>
       <c r="C93" t="n">
         <v>2.345</v>
@@ -1467,7 +1467,7 @@
         <v>1109.15</v>
       </c>
       <c r="B94" t="n">
-        <v>2.346121311187744</v>
+        <v>2.330305814743042</v>
       </c>
       <c r="C94" t="n">
         <v>2.331</v>
@@ -1478,7 +1478,7 @@
         <v>1109.2</v>
       </c>
       <c r="B95" t="n">
-        <v>2.326437711715698</v>
+        <v>2.324305772781372</v>
       </c>
       <c r="C95" t="n">
         <v>2.324</v>
@@ -1489,7 +1489,7 @@
         <v>1109.25</v>
       </c>
       <c r="B96" t="n">
-        <v>2.315341472625732</v>
+        <v>2.317268848419189</v>
       </c>
       <c r="C96" t="n">
         <v>2.327</v>
@@ -1500,7 +1500,7 @@
         <v>1109.3</v>
       </c>
       <c r="B97" t="n">
-        <v>2.30118465423584</v>
+        <v>2.307786703109741</v>
       </c>
       <c r="C97" t="n">
         <v>2.341</v>
@@ -1511,7 +1511,7 @@
         <v>1109.35</v>
       </c>
       <c r="B98" t="n">
-        <v>2.293700218200684</v>
+        <v>2.300028085708618</v>
       </c>
       <c r="C98" t="n">
         <v>2.362</v>
@@ -1522,7 +1522,7 @@
         <v>1109.4</v>
       </c>
       <c r="B99" t="n">
-        <v>2.288081407546997</v>
+        <v>2.293617725372314</v>
       </c>
       <c r="C99" t="n">
         <v>2.373</v>
@@ -1533,7 +1533,7 @@
         <v>1109.45</v>
       </c>
       <c r="B100" t="n">
-        <v>2.285036087036133</v>
+        <v>2.288968563079834</v>
       </c>
       <c r="C100" t="n">
         <v>2.377</v>
@@ -1544,7 +1544,7 @@
         <v>1109.5</v>
       </c>
       <c r="B101" t="n">
-        <v>2.283890724182129</v>
+        <v>2.286297798156738</v>
       </c>
       <c r="C101" t="n">
         <v>2.379</v>
@@ -1555,7 +1555,7 @@
         <v>1109.55</v>
       </c>
       <c r="B102" t="n">
-        <v>2.28196382522583</v>
+        <v>2.284457206726074</v>
       </c>
       <c r="C102" t="n">
         <v>2.387</v>
@@ -1566,7 +1566,7 @@
         <v>1109.6</v>
       </c>
       <c r="B103" t="n">
-        <v>2.272357225418091</v>
+        <v>2.279229640960693</v>
       </c>
       <c r="C103" t="n">
         <v>2.396</v>
@@ -1577,7 +1577,7 @@
         <v>1109.65</v>
       </c>
       <c r="B104" t="n">
-        <v>2.260100841522217</v>
+        <v>2.270712375640869</v>
       </c>
       <c r="C104" t="n">
         <v>2.403</v>
@@ -1588,7 +1588,7 @@
         <v>1109.7</v>
       </c>
       <c r="B105" t="n">
-        <v>2.276453256607056</v>
+        <v>2.274003028869629</v>
       </c>
       <c r="C105" t="n">
         <v>2.406</v>
@@ -1599,7 +1599,7 @@
         <v>1109.75</v>
       </c>
       <c r="B106" t="n">
-        <v>2.314208030700684</v>
+        <v>2.292088508605957</v>
       </c>
       <c r="C106" t="n">
         <v>2.402</v>
@@ -1610,7 +1610,7 @@
         <v>1109.8</v>
       </c>
       <c r="B107" t="n">
-        <v>2.343945980072021</v>
+        <v>2.312799453735352</v>
       </c>
       <c r="C107" t="n">
         <v>2.387</v>
@@ -1621,7 +1621,7 @@
         <v>1109.85</v>
       </c>
       <c r="B108" t="n">
-        <v>2.332557439804077</v>
+        <v>2.316486597061157</v>
       </c>
       <c r="C108" t="n">
         <v>2.37</v>
@@ -1632,7 +1632,7 @@
         <v>1109.9</v>
       </c>
       <c r="B109" t="n">
-        <v>2.329345226287842</v>
+        <v>2.31767749786377</v>
       </c>
       <c r="C109" t="n">
         <v>2.349</v>
@@ -1643,7 +1643,7 @@
         <v>1109.95</v>
       </c>
       <c r="B110" t="n">
-        <v>2.325908422470093</v>
+        <v>2.3180091381073</v>
       </c>
       <c r="C110" t="n">
         <v>2.316</v>
@@ -1654,7 +1654,7 @@
         <v>1110</v>
       </c>
       <c r="B111" t="n">
-        <v>2.306048154830933</v>
+        <v>2.310021162033081</v>
       </c>
       <c r="C111" t="n">
         <v>2.283</v>
@@ -1665,7 +1665,7 @@
         <v>1110.05</v>
       </c>
       <c r="B112" t="n">
-        <v>2.279715538024902</v>
+        <v>2.29485034942627</v>
       </c>
       <c r="C112" t="n">
         <v>2.245</v>
@@ -1676,7 +1676,7 @@
         <v>1110.1</v>
       </c>
       <c r="B113" t="n">
-        <v>2.259967803955078</v>
+        <v>2.279356956481934</v>
       </c>
       <c r="C113" t="n">
         <v>2.221</v>
@@ -1687,7 +1687,7 @@
         <v>1110.15</v>
       </c>
       <c r="B114" t="n">
-        <v>2.267836093902588</v>
+        <v>2.276514768600464</v>
       </c>
       <c r="C114" t="n">
         <v>2.207</v>
@@ -1698,7 +1698,7 @@
         <v>1110.2</v>
       </c>
       <c r="B115" t="n">
-        <v>2.275599241256714</v>
+        <v>2.278221130371094</v>
       </c>
       <c r="C115" t="n">
         <v>2.212</v>
@@ -1709,7 +1709,7 @@
         <v>1110.25</v>
       </c>
       <c r="B116" t="n">
-        <v>2.276828765869141</v>
+        <v>2.279003858566284</v>
       </c>
       <c r="C116" t="n">
         <v>2.216</v>
@@ -1720,7 +1720,7 @@
         <v>1110.3</v>
       </c>
       <c r="B117" t="n">
-        <v>2.278849840164185</v>
+        <v>2.280214786529541</v>
       </c>
       <c r="C117" t="n">
         <v>2.225</v>
@@ -1731,7 +1731,7 @@
         <v>1110.35</v>
       </c>
       <c r="B118" t="n">
-        <v>2.277108907699585</v>
+        <v>2.279652833938599</v>
       </c>
       <c r="C118" t="n">
         <v>2.227</v>
@@ -1742,7 +1742,7 @@
         <v>1110.4</v>
       </c>
       <c r="B119" t="n">
-        <v>2.274779796600342</v>
+        <v>2.278034448623657</v>
       </c>
       <c r="C119" t="n">
         <v>2.232</v>
@@ -1753,7 +1753,7 @@
         <v>1110.45</v>
       </c>
       <c r="B120" t="n">
-        <v>2.271987199783325</v>
+        <v>2.275559425354004</v>
       </c>
       <c r="C120" t="n">
         <v>2.239</v>
@@ -1764,7 +1764,7 @@
         <v>1110.5</v>
       </c>
       <c r="B121" t="n">
-        <v>2.268610239028931</v>
+        <v>2.272251844406128</v>
       </c>
       <c r="C121" t="n">
         <v>2.252</v>
@@ -1775,7 +1775,7 @@
         <v>1110.55</v>
       </c>
       <c r="B122" t="n">
-        <v>2.279791831970215</v>
+        <v>2.275503635406494</v>
       </c>
       <c r="C122" t="n">
         <v>2.269</v>
@@ -1786,7 +1786,7 @@
         <v>1110.6</v>
       </c>
       <c r="B123" t="n">
-        <v>2.289237022399902</v>
+        <v>2.280642032623291</v>
       </c>
       <c r="C123" t="n">
         <v>2.284</v>
@@ -1797,7 +1797,7 @@
         <v>1110.65</v>
       </c>
       <c r="B124" t="n">
-        <v>2.300782680511475</v>
+        <v>2.287916660308838</v>
       </c>
       <c r="C124" t="n">
         <v>2.295</v>
@@ -1808,7 +1808,7 @@
         <v>1110.7</v>
       </c>
       <c r="B125" t="n">
-        <v>2.304828643798828</v>
+        <v>2.293091297149658</v>
       </c>
       <c r="C125" t="n">
         <v>2.3</v>
@@ -1819,7 +1819,7 @@
         <v>1110.75</v>
       </c>
       <c r="B126" t="n">
-        <v>2.306916475296021</v>
+        <v>2.296973466873169</v>
       </c>
       <c r="C126" t="n">
         <v>2.296</v>
@@ -1830,7 +1830,7 @@
         <v>1110.8</v>
       </c>
       <c r="B127" t="n">
-        <v>2.307964086532593</v>
+        <v>2.300155162811279</v>
       </c>
       <c r="C127" t="n">
         <v>2.286</v>
@@ -1841,7 +1841,7 @@
         <v>1110.85</v>
       </c>
       <c r="B128" t="n">
-        <v>2.30516505241394</v>
+        <v>2.301238775253296</v>
       </c>
       <c r="C128" t="n">
         <v>2.276</v>
@@ -1852,7 +1852,7 @@
         <v>1110.9</v>
       </c>
       <c r="B129" t="n">
-        <v>2.293827295303345</v>
+        <v>2.297290563583374</v>
       </c>
       <c r="C129" t="n">
         <v>2.265</v>
@@ -1863,7 +1863,7 @@
         <v>1110.95</v>
       </c>
       <c r="B130" t="n">
-        <v>2.282516241073608</v>
+        <v>2.290835618972778</v>
       </c>
       <c r="C130" t="n">
         <v>2.256</v>
@@ -1874,7 +1874,7 @@
         <v>1111</v>
       </c>
       <c r="B131" t="n">
-        <v>2.2740638256073</v>
+        <v>2.28414249420166</v>
       </c>
       <c r="C131" t="n">
         <v>2.249</v>
@@ -1885,7 +1885,7 @@
         <v>1111.05</v>
       </c>
       <c r="B132" t="n">
-        <v>2.274144649505615</v>
+        <v>2.280968189239502</v>
       </c>
       <c r="C132" t="n">
         <v>2.24</v>
@@ -1896,7 +1896,7 @@
         <v>1111.1</v>
       </c>
       <c r="B133" t="n">
-        <v>2.278340339660645</v>
+        <v>2.280769348144531</v>
       </c>
       <c r="C133" t="n">
         <v>2.243</v>
@@ -1907,7 +1907,7 @@
         <v>1111.15</v>
       </c>
       <c r="B134" t="n">
-        <v>2.277832269668579</v>
+        <v>2.279658794403076</v>
       </c>
       <c r="C134" t="n">
         <v>2.245</v>
@@ -1918,7 +1918,7 @@
         <v>1111.2</v>
       </c>
       <c r="B135" t="n">
-        <v>2.276950597763062</v>
+        <v>2.278516054153442</v>
       </c>
       <c r="C135" t="n">
         <v>2.25</v>
@@ -1929,7 +1929,7 @@
         <v>1111.25</v>
       </c>
       <c r="B136" t="n">
-        <v>2.279323101043701</v>
+        <v>2.279242038726807</v>
       </c>
       <c r="C136" t="n">
         <v>2.254</v>
@@ -1940,7 +1940,7 @@
         <v>1111.3</v>
       </c>
       <c r="B137" t="n">
-        <v>2.277436256408691</v>
+        <v>2.278732776641846</v>
       </c>
       <c r="C137" t="n">
         <v>2.249</v>
@@ -1951,7 +1951,7 @@
         <v>1111.35</v>
       </c>
       <c r="B138" t="n">
-        <v>2.275238990783691</v>
+        <v>2.277658462524414</v>
       </c>
       <c r="C138" t="n">
         <v>2.241</v>
@@ -1962,7 +1962,7 @@
         <v>1111.4</v>
       </c>
       <c r="B139" t="n">
-        <v>2.28068208694458</v>
+        <v>2.28014063835144</v>
       </c>
       <c r="C139" t="n">
         <v>2.235</v>
@@ -1973,7 +1973,7 @@
         <v>1111.45</v>
       </c>
       <c r="B140" t="n">
-        <v>2.281200647354126</v>
+        <v>2.281577825546265</v>
       </c>
       <c r="C140" t="n">
         <v>2.231</v>
@@ -1984,7 +1984,7 @@
         <v>1111.5</v>
       </c>
       <c r="B141" t="n">
-        <v>2.279710054397583</v>
+        <v>2.281641721725464</v>
       </c>
       <c r="C141" t="n">
         <v>2.228</v>
@@ -1995,7 +1995,7 @@
         <v>1111.55</v>
       </c>
       <c r="B142" t="n">
-        <v>2.286847114562988</v>
+        <v>2.285273313522339</v>
       </c>
       <c r="C142" t="n">
         <v>2.226</v>
@@ -2006,7 +2006,7 @@
         <v>1111.6</v>
       </c>
       <c r="B143" t="n">
-        <v>2.286548614501953</v>
+        <v>2.286473751068115</v>
       </c>
       <c r="C143" t="n">
         <v>2.227</v>
@@ -2017,7 +2017,7 @@
         <v>1111.65</v>
       </c>
       <c r="B144" t="n">
-        <v>2.280641555786133</v>
+        <v>2.284101486206055</v>
       </c>
       <c r="C144" t="n">
         <v>2.236</v>
@@ -2028,7 +2028,7 @@
         <v>1111.7</v>
       </c>
       <c r="B145" t="n">
-        <v>2.282649755477905</v>
+        <v>2.284483909606934</v>
       </c>
       <c r="C145" t="n">
         <v>2.252</v>
@@ -2039,7 +2039,7 @@
         <v>1111.75</v>
       </c>
       <c r="B146" t="n">
-        <v>2.286203622817993</v>
+        <v>2.286759853363037</v>
       </c>
       <c r="C146" t="n">
         <v>2.266</v>
@@ -2050,7 +2050,7 @@
         <v>1111.8</v>
       </c>
       <c r="B147" t="n">
-        <v>2.283058881759644</v>
+        <v>2.286414384841919</v>
       </c>
       <c r="C147" t="n">
         <v>2.28</v>
@@ -2061,7 +2061,7 @@
         <v>1111.85</v>
       </c>
       <c r="B148" t="n">
-        <v>2.28059196472168</v>
+        <v>2.285017490386963</v>
       </c>
       <c r="C148" t="n">
         <v>2.287</v>
@@ -2072,7 +2072,7 @@
         <v>1111.9</v>
       </c>
       <c r="B149" t="n">
-        <v>2.289667129516602</v>
+        <v>2.288334131240845</v>
       </c>
       <c r="C149" t="n">
         <v>2.294</v>
@@ -2083,7 +2083,7 @@
         <v>1111.95</v>
       </c>
       <c r="B150" t="n">
-        <v>2.295583009719849</v>
+        <v>2.291938304901123</v>
       </c>
       <c r="C150" t="n">
         <v>2.304</v>
@@ -2094,7 +2094,7 @@
         <v>1112</v>
       </c>
       <c r="B151" t="n">
-        <v>2.299673318862915</v>
+        <v>2.294989824295044</v>
       </c>
       <c r="C151" t="n">
         <v>2.306</v>
@@ -2105,7 +2105,7 @@
         <v>1112.05</v>
       </c>
       <c r="B152" t="n">
-        <v>2.299627780914307</v>
+        <v>2.295965194702148</v>
       </c>
       <c r="C152" t="n">
         <v>2.303</v>
@@ -2116,7 +2116,7 @@
         <v>1112.1</v>
       </c>
       <c r="B153" t="n">
-        <v>2.299277544021606</v>
+        <v>2.296155452728271</v>
       </c>
       <c r="C153" t="n">
         <v>2.296</v>
@@ -2127,7 +2127,7 @@
         <v>1112.15</v>
       </c>
       <c r="B154" t="n">
-        <v>2.298059225082397</v>
+        <v>2.295974969863892</v>
       </c>
       <c r="C154" t="n">
         <v>2.286</v>
@@ -2138,7 +2138,7 @@
         <v>1112.2</v>
       </c>
       <c r="B155" t="n">
-        <v>2.295559883117676</v>
+        <v>2.295271635055542</v>
       </c>
       <c r="C155" t="n">
         <v>2.281</v>
@@ -2149,7 +2149,7 @@
         <v>1112.25</v>
       </c>
       <c r="B156" t="n">
-        <v>2.284003496170044</v>
+        <v>2.290109157562256</v>
       </c>
       <c r="C156" t="n">
         <v>2.279</v>
@@ -2160,7 +2160,7 @@
         <v>1112.3</v>
       </c>
       <c r="B157" t="n">
-        <v>2.277959823608398</v>
+        <v>2.285460472106934</v>
       </c>
       <c r="C157" t="n">
         <v>2.286</v>
@@ -2171,7 +2171,7 @@
         <v>1112.35</v>
       </c>
       <c r="B158" t="n">
-        <v>2.284601926803589</v>
+        <v>2.286272525787354</v>
       </c>
       <c r="C158" t="n">
         <v>2.308</v>
@@ -2182,7 +2182,7 @@
         <v>1112.4</v>
       </c>
       <c r="B159" t="n">
-        <v>2.299224376678467</v>
+        <v>2.292575120925903</v>
       </c>
       <c r="C159" t="n">
         <v>2.332</v>
@@ -2193,7 +2193,7 @@
         <v>1112.45</v>
       </c>
       <c r="B160" t="n">
-        <v>2.307590007781982</v>
+        <v>2.298408031463623</v>
       </c>
       <c r="C160" t="n">
         <v>2.359</v>
@@ -2204,7 +2204,7 @@
         <v>1112.5</v>
       </c>
       <c r="B161" t="n">
-        <v>2.313012838363647</v>
+        <v>2.303302526473999</v>
       </c>
       <c r="C161" t="n">
         <v>2.369</v>
@@ -2215,7 +2215,7 @@
         <v>1112.55</v>
       </c>
       <c r="B162" t="n">
-        <v>2.313138246536255</v>
+        <v>2.305770874023438</v>
       </c>
       <c r="C162" t="n">
         <v>2.367</v>
@@ -2226,7 +2226,7 @@
         <v>1112.6</v>
       </c>
       <c r="B163" t="n">
-        <v>2.305272102355957</v>
+        <v>2.303483963012695</v>
       </c>
       <c r="C163" t="n">
         <v>2.342</v>
@@ -2237,7 +2237,7 @@
         <v>1112.65</v>
       </c>
       <c r="B164" t="n">
-        <v>2.301459550857544</v>
+        <v>2.301095485687256</v>
       </c>
       <c r="C164" t="n">
         <v>2.301</v>
@@ -2248,7 +2248,7 @@
         <v>1112.7</v>
       </c>
       <c r="B165" t="n">
-        <v>2.298697948455811</v>
+        <v>2.298173904418945</v>
       </c>
       <c r="C165" t="n">
         <v>2.247</v>
@@ -2259,7 +2259,7 @@
         <v>1112.75</v>
       </c>
       <c r="B166" t="n">
-        <v>2.286785840988159</v>
+        <v>2.290182113647461</v>
       </c>
       <c r="C166" t="n">
         <v>2.191</v>
@@ -2270,7 +2270,7 @@
         <v>1112.8</v>
       </c>
       <c r="B167" t="n">
-        <v>2.266925811767578</v>
+        <v>2.276386976242065</v>
       </c>
       <c r="C167" t="n">
         <v>2.139</v>
@@ -2281,7 +2281,7 @@
         <v>1112.85</v>
       </c>
       <c r="B168" t="n">
-        <v>2.247450351715088</v>
+        <v>2.260501623153687</v>
       </c>
       <c r="C168" t="n">
         <v>2.099</v>
@@ -2292,7 +2292,7 @@
         <v>1112.9</v>
       </c>
       <c r="B169" t="n">
-        <v>2.218505859375</v>
+        <v>2.239019393920898</v>
       </c>
       <c r="C169" t="n">
         <v>2.076</v>
@@ -2303,7 +2303,7 @@
         <v>1112.95</v>
       </c>
       <c r="B170" t="n">
-        <v>2.191682100296021</v>
+        <v>2.216653347015381</v>
       </c>
       <c r="C170" t="n">
         <v>2.069</v>
@@ -2314,7 +2314,7 @@
         <v>1113</v>
       </c>
       <c r="B171" t="n">
-        <v>2.175833225250244</v>
+        <v>2.199102401733398</v>
       </c>
       <c r="C171" t="n">
         <v>2.073</v>
@@ -2325,7 +2325,7 @@
         <v>1113.05</v>
       </c>
       <c r="B172" t="n">
-        <v>2.165789365768433</v>
+        <v>2.186483144760132</v>
       </c>
       <c r="C172" t="n">
         <v>2.08</v>
@@ -2336,7 +2336,7 @@
         <v>1113.1</v>
       </c>
       <c r="B173" t="n">
-        <v>2.157053709030151</v>
+        <v>2.176359415054321</v>
       </c>
       <c r="C173" t="n">
         <v>2.094</v>
@@ -2347,7 +2347,7 @@
         <v>1113.15</v>
       </c>
       <c r="B174" t="n">
-        <v>2.155594825744629</v>
+        <v>2.170569896697998</v>
       </c>
       <c r="C174" t="n">
         <v>2.104</v>
@@ -2358,7 +2358,7 @@
         <v>1113.2</v>
       </c>
       <c r="B175" t="n">
-        <v>2.160486698150635</v>
+        <v>2.168965339660645</v>
       </c>
       <c r="C175" t="n">
         <v>2.118</v>
@@ -2369,7 +2369,7 @@
         <v>1113.25</v>
       </c>
       <c r="B176" t="n">
-        <v>2.166282653808594</v>
+        <v>2.169455766677856</v>
       </c>
       <c r="C176" t="n">
         <v>2.134</v>
@@ -2380,7 +2380,7 @@
         <v>1113.3</v>
       </c>
       <c r="B177" t="n">
-        <v>2.178122043609619</v>
+        <v>2.173887252807617</v>
       </c>
       <c r="C177" t="n">
         <v>2.149</v>
@@ -2391,7 +2391,7 @@
         <v>1113.35</v>
       </c>
       <c r="B178" t="n">
-        <v>2.192082166671753</v>
+        <v>2.181153059005737</v>
       </c>
       <c r="C178" t="n">
         <v>2.164</v>
@@ -2402,7 +2402,7 @@
         <v>1113.4</v>
       </c>
       <c r="B179" t="n">
-        <v>2.199496984481812</v>
+        <v>2.187125682830811</v>
       </c>
       <c r="C179" t="n">
         <v>2.175</v>
@@ -2413,7 +2413,7 @@
         <v>1113.45</v>
       </c>
       <c r="B180" t="n">
-        <v>2.198614835739136</v>
+        <v>2.189762592315674</v>
       </c>
       <c r="C180" t="n">
         <v>2.174</v>
@@ -2424,7 +2424,7 @@
         <v>1113.5</v>
       </c>
       <c r="B181" t="n">
-        <v>2.198401689529419</v>
+        <v>2.192013740539551</v>
       </c>
       <c r="C181" t="n">
         <v>2.172</v>
@@ -2435,7 +2435,7 @@
         <v>1113.55</v>
       </c>
       <c r="B182" t="n">
-        <v>2.203586339950562</v>
+        <v>2.196368932723999</v>
       </c>
       <c r="C182" t="n">
         <v>2.175</v>
@@ -2446,7 +2446,7 @@
         <v>1113.6</v>
       </c>
       <c r="B183" t="n">
-        <v>2.213724851608276</v>
+        <v>2.203359842300415</v>
       </c>
       <c r="C183" t="n">
         <v>2.184</v>
@@ -2457,7 +2457,7 @@
         <v>1113.65</v>
       </c>
       <c r="B184" t="n">
-        <v>2.21900486946106</v>
+        <v>2.208998203277588</v>
       </c>
       <c r="C184" t="n">
         <v>2.197</v>
@@ -2468,7 +2468,7 @@
         <v>1113.7</v>
       </c>
       <c r="B185" t="n">
-        <v>2.218374252319336</v>
+        <v>2.211596965789795</v>
       </c>
       <c r="C185" t="n">
         <v>2.199</v>
@@ -2479,7 +2479,7 @@
         <v>1113.75</v>
       </c>
       <c r="B186" t="n">
-        <v>2.213067054748535</v>
+        <v>2.211173295974731</v>
       </c>
       <c r="C186" t="n">
         <v>2.196</v>
@@ -2490,7 +2490,7 @@
         <v>1113.8</v>
       </c>
       <c r="B187" t="n">
-        <v>2.199790000915527</v>
+        <v>2.206254482269287</v>
       </c>
       <c r="C187" t="n">
         <v>2.189</v>
@@ -2501,7 +2501,7 @@
         <v>1113.85</v>
       </c>
       <c r="B188" t="n">
-        <v>2.189570426940918</v>
+        <v>2.201021432876587</v>
       </c>
       <c r="C188" t="n">
         <v>2.186</v>
@@ -2512,7 +2512,7 @@
         <v>1113.9</v>
       </c>
       <c r="B189" t="n">
-        <v>2.186373472213745</v>
+        <v>2.198117017745972</v>
       </c>
       <c r="C189" t="n">
         <v>2.185</v>
@@ -2523,7 +2523,7 @@
         <v>1113.95</v>
       </c>
       <c r="B190" t="n">
-        <v>2.180827379226685</v>
+        <v>2.194435119628906</v>
       </c>
       <c r="C190" t="n">
         <v>2.181</v>
@@ -2534,7 +2534,7 @@
         <v>1114</v>
       </c>
       <c r="B191" t="n">
-        <v>2.18148136138916</v>
+        <v>2.192904949188232</v>
       </c>
       <c r="C191" t="n">
         <v>2.183</v>
@@ -2545,7 +2545,7 @@
         <v>1114.05</v>
       </c>
       <c r="B192" t="n">
-        <v>2.194811820983887</v>
+        <v>2.19670844078064</v>
       </c>
       <c r="C192" t="n">
         <v>2.189</v>
@@ -2556,7 +2556,7 @@
         <v>1114.1</v>
       </c>
       <c r="B193" t="n">
-        <v>2.222400426864624</v>
+        <v>2.208173990249634</v>
       </c>
       <c r="C193" t="n">
         <v>2.209</v>
@@ -2567,7 +2567,7 @@
         <v>1114.15</v>
       </c>
       <c r="B194" t="n">
-        <v>2.249951839447021</v>
+        <v>2.223067760467529</v>
       </c>
       <c r="C194" t="n">
         <v>2.234</v>
@@ -2578,7 +2578,7 @@
         <v>1114.2</v>
       </c>
       <c r="B195" t="n">
-        <v>2.274161338806152</v>
+        <v>2.239426374435425</v>
       </c>
       <c r="C195" t="n">
         <v>2.26</v>
@@ -2589,7 +2589,7 @@
         <v>1114.25</v>
       </c>
       <c r="B196" t="n">
-        <v>2.293420076370239</v>
+        <v>2.255625009536743</v>
       </c>
       <c r="C196" t="n">
         <v>2.281</v>
@@ -2600,7 +2600,7 @@
         <v>1114.3</v>
       </c>
       <c r="B197" t="n">
-        <v>2.306558609008789</v>
+        <v>2.270010948181152</v>
       </c>
       <c r="C197" t="n">
         <v>2.306</v>
@@ -2611,7 +2611,7 @@
         <v>1114.35</v>
       </c>
       <c r="B198" t="n">
-        <v>2.314728260040283</v>
+        <v>2.281976699829102</v>
       </c>
       <c r="C198" t="n">
         <v>2.332</v>
@@ -2622,7 +2622,7 @@
         <v>1114.4</v>
       </c>
       <c r="B199" t="n">
-        <v>2.317740917205811</v>
+        <v>2.291116714477539</v>
       </c>
       <c r="C199" t="n">
         <v>2.345</v>
@@ -2633,7 +2633,7 @@
         <v>1114.45</v>
       </c>
       <c r="B200" t="n">
-        <v>2.319250345230103</v>
+        <v>2.297303676605225</v>
       </c>
       <c r="C200" t="n">
         <v>2.344</v>
@@ -2644,7 +2644,7 @@
         <v>1114.5</v>
       </c>
       <c r="B201" t="n">
-        <v>2.314762353897095</v>
+        <v>2.299221515655518</v>
       </c>
       <c r="C201" t="n">
         <v>2.321</v>
@@ -2655,7 +2655,7 @@
         <v>1114.55</v>
       </c>
       <c r="B202" t="n">
-        <v>2.308825731277466</v>
+        <v>2.298392057418823</v>
       </c>
       <c r="C202" t="n">
         <v>2.281</v>
@@ -2666,7 +2666,7 @@
         <v>1114.6</v>
       </c>
       <c r="B203" t="n">
-        <v>2.309622764587402</v>
+        <v>2.299140930175781</v>
       </c>
       <c r="C203" t="n">
         <v>2.245</v>
@@ -2677,7 +2677,7 @@
         <v>1114.65</v>
       </c>
       <c r="B204" t="n">
-        <v>2.304402828216553</v>
+        <v>2.297167778015137</v>
       </c>
       <c r="C204" t="n">
         <v>2.218</v>
@@ -2688,7 +2688,7 @@
         <v>1114.7</v>
       </c>
       <c r="B205" t="n">
-        <v>2.288962125778198</v>
+        <v>2.288773536682129</v>
       </c>
       <c r="C205" t="n">
         <v>2.206</v>
@@ -2699,7 +2699,7 @@
         <v>1114.75</v>
       </c>
       <c r="B206" t="n">
-        <v>2.274318933486938</v>
+        <v>2.278012275695801</v>
       </c>
       <c r="C206" t="n">
         <v>2.213</v>
@@ -2710,7 +2710,7 @@
         <v>1114.8</v>
       </c>
       <c r="B207" t="n">
-        <v>2.262845277786255</v>
+        <v>2.26784086227417</v>
       </c>
       <c r="C207" t="n">
         <v>2.225</v>
@@ -2721,7 +2721,7 @@
         <v>1114.85</v>
       </c>
       <c r="B208" t="n">
-        <v>2.256803035736084</v>
+        <v>2.260660171508789</v>
       </c>
       <c r="C208" t="n">
         <v>2.245</v>
@@ -2732,7 +2732,7 @@
         <v>1114.9</v>
       </c>
       <c r="B209" t="n">
-        <v>2.262593507766724</v>
+        <v>2.260499238967896</v>
       </c>
       <c r="C209" t="n">
         <v>2.261</v>
@@ -2743,7 +2743,7 @@
         <v>1114.95</v>
       </c>
       <c r="B210" t="n">
-        <v>2.275243282318115</v>
+        <v>2.266632556915283</v>
       </c>
       <c r="C210" t="n">
         <v>2.267</v>
@@ -2754,7 +2754,7 @@
         <v>1115</v>
       </c>
       <c r="B211" t="n">
-        <v>2.285345792770386</v>
+        <v>2.274306058883667</v>
       </c>
       <c r="C211" t="n">
         <v>2.28</v>
@@ -2765,7 +2765,7 @@
         <v>1115.05</v>
       </c>
       <c r="B212" t="n">
-        <v>2.283180713653564</v>
+        <v>2.276955604553223</v>
       </c>
       <c r="C212" t="n">
         <v>2.287</v>
@@ -2776,7 +2776,7 @@
         <v>1115.1</v>
       </c>
       <c r="B213" t="n">
-        <v>2.285428524017334</v>
+        <v>2.279817342758179</v>
       </c>
       <c r="C213" t="n">
         <v>2.296</v>
@@ -2787,7 +2787,7 @@
         <v>1115.15</v>
       </c>
       <c r="B214" t="n">
-        <v>2.293907880783081</v>
+        <v>2.285649538040161</v>
       </c>
       <c r="C214" t="n">
         <v>2.3</v>
@@ -2798,7 +2798,7 @@
         <v>1115.2</v>
       </c>
       <c r="B215" t="n">
-        <v>2.293513774871826</v>
+        <v>2.288430452346802</v>
       </c>
       <c r="C215" t="n">
         <v>2.298</v>
@@ -2809,7 +2809,7 @@
         <v>1115.25</v>
       </c>
       <c r="B216" t="n">
-        <v>2.290482044219971</v>
+        <v>2.288693904876709</v>
       </c>
       <c r="C216" t="n">
         <v>2.283</v>
@@ -2820,7 +2820,7 @@
         <v>1115.3</v>
       </c>
       <c r="B217" t="n">
-        <v>2.291068315505981</v>
+        <v>2.289409399032593</v>
       </c>
       <c r="C217" t="n">
         <v>2.262</v>
@@ -2831,7 +2831,7 @@
         <v>1115.35</v>
       </c>
       <c r="B218" t="n">
-        <v>2.291682243347168</v>
+        <v>2.290225267410278</v>
       </c>
       <c r="C218" t="n">
         <v>2.239</v>
@@ -2842,7 +2842,7 @@
         <v>1115.4</v>
       </c>
       <c r="B219" t="n">
-        <v>2.296509265899658</v>
+        <v>2.293288230895996</v>
       </c>
       <c r="C219" t="n">
         <v>2.21</v>
@@ -2853,7 +2853,7 @@
         <v>1115.45</v>
       </c>
       <c r="B220" t="n">
-        <v>2.29453706741333</v>
+        <v>2.29399299621582</v>
       </c>
       <c r="C220" t="n">
         <v>2.192</v>
@@ -2864,7 +2864,7 @@
         <v>1115.5</v>
       </c>
       <c r="B221" t="n">
-        <v>2.282691240310669</v>
+        <v>2.288652896881104</v>
       </c>
       <c r="C221" t="n">
         <v>2.183</v>
@@ -2875,7 +2875,7 @@
         <v>1115.55</v>
       </c>
       <c r="B222" t="n">
-        <v>2.268437385559082</v>
+        <v>2.279181718826294</v>
       </c>
       <c r="C222" t="n">
         <v>2.179</v>
@@ -2886,7 +2886,7 @@
         <v>1115.6</v>
       </c>
       <c r="B223" t="n">
-        <v>2.252116918563843</v>
+        <v>2.266668081283569</v>
       </c>
       <c r="C223" t="n">
         <v>2.184</v>
@@ -2897,7 +2897,7 @@
         <v>1115.65</v>
       </c>
       <c r="B224" t="n">
-        <v>2.238590240478516</v>
+        <v>2.254013538360596</v>
       </c>
       <c r="C224" t="n">
         <v>2.187</v>
@@ -2908,7 +2908,7 @@
         <v>1115.7</v>
       </c>
       <c r="B225" t="n">
-        <v>2.227821826934814</v>
+        <v>2.242403507232666</v>
       </c>
       <c r="C225" t="n">
         <v>2.196</v>
@@ -2919,7 +2919,7 @@
         <v>1115.75</v>
       </c>
       <c r="B226" t="n">
-        <v>2.223640441894531</v>
+        <v>2.23429274559021</v>
       </c>
       <c r="C226" t="n">
         <v>2.195</v>
@@ -2930,7 +2930,7 @@
         <v>1115.8</v>
       </c>
       <c r="B227" t="n">
-        <v>2.222069501876831</v>
+        <v>2.228747606277466</v>
       </c>
       <c r="C227" t="n">
         <v>2.188</v>
@@ -2941,7 +2941,7 @@
         <v>1115.85</v>
       </c>
       <c r="B228" t="n">
-        <v>2.219628810882568</v>
+        <v>2.223941326141357</v>
       </c>
       <c r="C228" t="n">
         <v>2.169</v>
@@ -2952,7 +2952,7 @@
         <v>1115.9</v>
       </c>
       <c r="B229" t="n">
-        <v>2.216570377349854</v>
+        <v>2.219338893890381</v>
       </c>
       <c r="C229" t="n">
         <v>2.157</v>
@@ -2963,7 +2963,7 @@
         <v>1115.95</v>
       </c>
       <c r="B230" t="n">
-        <v>2.213302612304688</v>
+        <v>2.214874744415283</v>
       </c>
       <c r="C230" t="n">
         <v>2.148</v>
@@ -2974,7 +2974,7 @@
         <v>1116</v>
       </c>
       <c r="B231" t="n">
-        <v>2.214270114898682</v>
+        <v>2.213032007217407</v>
       </c>
       <c r="C231" t="n">
         <v>2.157</v>
@@ -2985,7 +2985,7 @@
         <v>1116.05</v>
       </c>
       <c r="B232" t="n">
-        <v>2.224166631698608</v>
+        <v>2.217148542404175</v>
       </c>
       <c r="C232" t="n">
         <v>2.182</v>
@@ -2996,7 +2996,7 @@
         <v>1116.1</v>
       </c>
       <c r="B233" t="n">
-        <v>2.243115663528442</v>
+        <v>2.228379249572754</v>
       </c>
       <c r="C233" t="n">
         <v>2.216</v>
@@ -3007,7 +3007,7 @@
         <v>1116.15</v>
       </c>
       <c r="B234" t="n">
-        <v>2.262221336364746</v>
+        <v>2.242989301681519</v>
       </c>
       <c r="C234" t="n">
         <v>2.249</v>
@@ -3018,7 +3018,7 @@
         <v>1116.2</v>
       </c>
       <c r="B235" t="n">
-        <v>2.276945352554321</v>
+        <v>2.257115125656128</v>
       </c>
       <c r="C235" t="n">
         <v>2.271</v>
@@ -3029,7 +3029,7 @@
         <v>1116.25</v>
       </c>
       <c r="B236" t="n">
-        <v>2.280826091766357</v>
+        <v>2.265966892242432</v>
       </c>
       <c r="C236" t="n">
         <v>2.271</v>
@@ -3040,7 +3040,7 @@
         <v>1116.3</v>
       </c>
       <c r="B237" t="n">
-        <v>2.281765937805176</v>
+        <v>2.271591901779175</v>
       </c>
       <c r="C237" t="n">
         <v>2.269</v>
@@ -3051,7 +3051,7 @@
         <v>1116.35</v>
       </c>
       <c r="B238" t="n">
-        <v>2.284289836883545</v>
+        <v>2.276565074920654</v>
       </c>
       <c r="C238" t="n">
         <v>2.257</v>
@@ -3062,7 +3062,7 @@
         <v>1116.4</v>
       </c>
       <c r="B239" t="n">
-        <v>2.280868053436279</v>
+        <v>2.277998447418213</v>
       </c>
       <c r="C239" t="n">
         <v>2.254</v>
@@ -3073,7 +3073,7 @@
         <v>1116.45</v>
       </c>
       <c r="B240" t="n">
-        <v>2.27838659286499</v>
+        <v>2.278046846389771</v>
       </c>
       <c r="C240" t="n">
         <v>2.265</v>
@@ -3084,7 +3084,7 @@
         <v>1116.5</v>
       </c>
       <c r="B241" t="n">
-        <v>2.277365684509277</v>
+        <v>2.277802705764771</v>
       </c>
       <c r="C241" t="n">
         <v>2.28</v>
@@ -3095,7 +3095,7 @@
         <v>1116.55</v>
       </c>
       <c r="B242" t="n">
-        <v>2.278127193450928</v>
+        <v>2.278104543685913</v>
       </c>
       <c r="C242" t="n">
         <v>2.303</v>
@@ -3106,7 +3106,7 @@
         <v>1116.6</v>
       </c>
       <c r="B243" t="n">
-        <v>2.290574073791504</v>
+        <v>2.284271240234375</v>
       </c>
       <c r="C243" t="n">
         <v>2.321</v>
@@ -3117,7 +3117,7 @@
         <v>1116.65</v>
       </c>
       <c r="B244" t="n">
-        <v>2.302838563919067</v>
+        <v>2.293016672134399</v>
       </c>
       <c r="C244" t="n">
         <v>2.338</v>
@@ -3128,7 +3128,7 @@
         <v>1116.7</v>
       </c>
       <c r="B245" t="n">
-        <v>2.309458017349243</v>
+        <v>2.300462484359741</v>
       </c>
       <c r="C245" t="n">
         <v>2.35</v>
@@ -3139,7 +3139,7 @@
         <v>1116.75</v>
       </c>
       <c r="B246" t="n">
-        <v>2.310371875762939</v>
+        <v>2.304641485214233</v>
       </c>
       <c r="C246" t="n">
         <v>2.356</v>
@@ -3150,7 +3150,7 @@
         <v>1116.8</v>
       </c>
       <c r="B247" t="n">
-        <v>2.305440664291382</v>
+        <v>2.304461002349854</v>
       </c>
       <c r="C247" t="n">
         <v>2.358</v>
@@ -3161,7 +3161,7 @@
         <v>1116.85</v>
       </c>
       <c r="B248" t="n">
-        <v>2.303512573242188</v>
+        <v>2.303556680679321</v>
       </c>
       <c r="C248" t="n">
         <v>2.347</v>
@@ -3172,7 +3172,7 @@
         <v>1116.9</v>
       </c>
       <c r="B249" t="n">
-        <v>2.304023027420044</v>
+        <v>2.303057193756104</v>
       </c>
       <c r="C249" t="n">
         <v>2.326</v>
@@ -3183,7 +3183,7 @@
         <v>1116.95</v>
       </c>
       <c r="B250" t="n">
-        <v>2.301046133041382</v>
+        <v>2.300880432128906</v>
       </c>
       <c r="C250" t="n">
         <v>2.293</v>
@@ -3194,7 +3194,7 @@
         <v>1117</v>
       </c>
       <c r="B251" t="n">
-        <v>2.299604415893555</v>
+        <v>2.298855304718018</v>
       </c>
       <c r="C251" t="n">
         <v>2.263</v>
@@ -3205,7 +3205,7 @@
         <v>1117.05</v>
       </c>
       <c r="B252" t="n">
-        <v>2.297942161560059</v>
+        <v>2.296942949295044</v>
       </c>
       <c r="C252" t="n">
         <v>2.237</v>
@@ -3216,7 +3216,7 @@
         <v>1117.1</v>
       </c>
       <c r="B253" t="n">
-        <v>2.287221193313599</v>
+        <v>2.290936231613159</v>
       </c>
       <c r="C253" t="n">
         <v>2.222</v>
@@ -3227,7 +3227,7 @@
         <v>1117.15</v>
       </c>
       <c r="B254" t="n">
-        <v>2.274051427841187</v>
+        <v>2.281956195831299</v>
       </c>
       <c r="C254" t="n">
         <v>2.206</v>
@@ -3238,7 +3238,7 @@
         <v>1117.2</v>
       </c>
       <c r="B255" t="n">
-        <v>2.253391027450562</v>
+        <v>2.267926692962646</v>
       </c>
       <c r="C255" t="n">
         <v>2.192</v>
@@ -3249,7 +3249,7 @@
         <v>1117.25</v>
       </c>
       <c r="B256" t="n">
-        <v>2.231847286224365</v>
+        <v>2.25090217590332</v>
       </c>
       <c r="C256" t="n">
         <v>2.182</v>
@@ -3260,7 +3260,7 @@
         <v>1117.3</v>
       </c>
       <c r="B257" t="n">
-        <v>2.207664251327515</v>
+        <v>2.230645656585693</v>
       </c>
       <c r="C257" t="n">
         <v>2.178</v>
@@ -3271,7 +3271,7 @@
         <v>1117.35</v>
       </c>
       <c r="B258" t="n">
-        <v>2.193064451217651</v>
+        <v>2.213494062423706</v>
       </c>
       <c r="C258" t="n">
         <v>2.18</v>
@@ -3282,7 +3282,7 @@
         <v>1117.4</v>
       </c>
       <c r="B259" t="n">
-        <v>2.192342758178711</v>
+        <v>2.204192161560059</v>
       </c>
       <c r="C259" t="n">
         <v>2.183</v>
@@ -3293,7 +3293,7 @@
         <v>1117.45</v>
       </c>
       <c r="B260" t="n">
-        <v>2.208931922912598</v>
+        <v>2.207068204879761</v>
       </c>
       <c r="C260" t="n">
         <v>2.179</v>
@@ -3304,7 +3304,7 @@
         <v>1117.5</v>
       </c>
       <c r="B261" t="n">
-        <v>2.238569974899292</v>
+        <v>2.221984386444092</v>
       </c>
       <c r="C261" t="n">
         <v>2.171</v>
@@ -3315,7 +3315,7 @@
         <v>1117.55</v>
       </c>
       <c r="B262" t="n">
-        <v>2.25345516204834</v>
+        <v>2.234978199005127</v>
       </c>
       <c r="C262" t="n">
         <v>2.153</v>
@@ -3326,7 +3326,7 @@
         <v>1117.6</v>
       </c>
       <c r="B263" t="n">
-        <v>2.252147197723389</v>
+        <v>2.239631414413452</v>
       </c>
       <c r="C263" t="n">
         <v>2.139</v>
@@ -3337,7 +3337,7 @@
         <v>1117.65</v>
       </c>
       <c r="B264" t="n">
-        <v>2.247665166854858</v>
+        <v>2.239812135696411</v>
       </c>
       <c r="C264" t="n">
         <v>2.131</v>
@@ -3348,7 +3348,7 @@
         <v>1117.7</v>
       </c>
       <c r="B265" t="n">
-        <v>2.244261980056763</v>
+        <v>2.23920726776123</v>
       </c>
       <c r="C265" t="n">
         <v>2.126</v>
@@ -3359,7 +3359,7 @@
         <v>1117.75</v>
       </c>
       <c r="B266" t="n">
-        <v>2.237560272216797</v>
+        <v>2.236551761627197</v>
       </c>
       <c r="C266" t="n">
         <v>2.133</v>
@@ -3370,7 +3370,7 @@
         <v>1117.8</v>
       </c>
       <c r="B267" t="n">
-        <v>2.235110759735107</v>
+        <v>2.23499059677124</v>
       </c>
       <c r="C267" t="n">
         <v>2.146</v>
@@ -3381,7 +3381,7 @@
         <v>1117.85</v>
       </c>
       <c r="B268" t="n">
-        <v>2.243585586547852</v>
+        <v>2.238939046859741</v>
       </c>
       <c r="C268" t="n">
         <v>2.167</v>
@@ -3392,7 +3392,7 @@
         <v>1117.9</v>
       </c>
       <c r="B269" t="n">
-        <v>2.246987342834473</v>
+        <v>2.242013692855835</v>
       </c>
       <c r="C269" t="n">
         <v>2.183</v>
@@ -3403,7 +3403,7 @@
         <v>1117.95</v>
       </c>
       <c r="B270" t="n">
-        <v>2.242557287216187</v>
+        <v>2.240981578826904</v>
       </c>
       <c r="C270" t="n">
         <v>2.193</v>
@@ -3414,7 +3414,7 @@
         <v>1118</v>
       </c>
       <c r="B271" t="n">
-        <v>2.244292259216309</v>
+        <v>2.241902828216553</v>
       </c>
       <c r="C271" t="n">
         <v>2.196</v>
@@ -3425,7 +3425,7 @@
         <v>1118.05</v>
       </c>
       <c r="B272" t="n">
-        <v>2.25285530090332</v>
+        <v>2.247137546539307</v>
       </c>
       <c r="C272" t="n">
         <v>2.204</v>
@@ -3436,7 +3436,7 @@
         <v>1118.1</v>
       </c>
       <c r="B273" t="n">
-        <v>2.263623714447021</v>
+        <v>2.255178451538086</v>
       </c>
       <c r="C273" t="n">
         <v>2.208</v>
@@ -3447,7 +3447,7 @@
         <v>1118.15</v>
       </c>
       <c r="B274" t="n">
-        <v>2.277393102645874</v>
+        <v>2.266069412231445</v>
       </c>
       <c r="C274" t="n">
         <v>2.215</v>
@@ -3458,7 +3458,7 @@
         <v>1118.2</v>
       </c>
       <c r="B275" t="n">
-        <v>2.289009571075439</v>
+        <v>2.277340888977051</v>
       </c>
       <c r="C275" t="n">
         <v>2.225</v>
@@ -3469,7 +3469,7 @@
         <v>1118.25</v>
       </c>
       <c r="B276" t="n">
-        <v>2.295164585113525</v>
+        <v>2.286259412765503</v>
       </c>
       <c r="C276" t="n">
         <v>2.237</v>
@@ -3480,7 +3480,7 @@
         <v>1118.3</v>
       </c>
       <c r="B277" t="n">
-        <v>2.298076868057251</v>
+        <v>2.292504787445068</v>
       </c>
       <c r="C277" t="n">
         <v>2.245</v>
@@ -3491,7 +3491,7 @@
         <v>1118.35</v>
       </c>
       <c r="B278" t="n">
-        <v>2.299873113632202</v>
+        <v>2.296833276748657</v>
       </c>
       <c r="C278" t="n">
         <v>2.26</v>
@@ -3502,7 +3502,7 @@
         <v>1118.4</v>
       </c>
       <c r="B279" t="n">
-        <v>2.301907539367676</v>
+        <v>2.300213575363159</v>
       </c>
       <c r="C279" t="n">
         <v>2.263</v>
@@ -3513,7 +3513,7 @@
         <v>1118.45</v>
       </c>
       <c r="B280" t="n">
-        <v>2.304618358612061</v>
+        <v>2.303330898284912</v>
       </c>
       <c r="C280" t="n">
         <v>2.267</v>
@@ -3524,7 +3524,7 @@
         <v>1118.5</v>
       </c>
       <c r="B281" t="n">
-        <v>2.306059122085571</v>
+        <v>2.305634021759033</v>
       </c>
       <c r="C281" t="n">
         <v>2.272</v>
@@ -3535,7 +3535,7 @@
         <v>1118.55</v>
       </c>
       <c r="B282" t="n">
-        <v>2.307000637054443</v>
+        <v>2.307350873947144</v>
       </c>
       <c r="C282" t="n">
         <v>2.278</v>
@@ -3546,7 +3546,7 @@
         <v>1118.6</v>
       </c>
       <c r="B283" t="n">
-        <v>2.30853796005249</v>
+        <v>2.309139728546143</v>
       </c>
       <c r="C283" t="n">
         <v>2.296</v>
@@ -3557,7 +3557,7 @@
         <v>1118.65</v>
       </c>
       <c r="B284" t="n">
-        <v>2.308637619018555</v>
+        <v>2.310309886932373</v>
       </c>
       <c r="C284" t="n">
         <v>2.314</v>
@@ -3568,7 +3568,7 @@
         <v>1118.7</v>
       </c>
       <c r="B285" t="n">
-        <v>2.311207056045532</v>
+        <v>2.312444686889648</v>
       </c>
       <c r="C285" t="n">
         <v>2.336</v>
@@ -3579,7 +3579,7 @@
         <v>1118.75</v>
       </c>
       <c r="B286" t="n">
-        <v>2.30976676940918</v>
+        <v>2.313062429428101</v>
       </c>
       <c r="C286" t="n">
         <v>2.35</v>
@@ -3590,7 +3590,7 @@
         <v>1118.8</v>
       </c>
       <c r="B287" t="n">
-        <v>2.302683591842651</v>
+        <v>2.310187339782715</v>
       </c>
       <c r="C287" t="n">
         <v>2.35</v>
@@ -3601,7 +3601,7 @@
         <v>1118.85</v>
       </c>
       <c r="B288" t="n">
-        <v>2.296828746795654</v>
+        <v>2.306231021881104</v>
       </c>
       <c r="C288" t="n">
         <v>2.337</v>
@@ -3612,7 +3612,7 @@
         <v>1118.9</v>
       </c>
       <c r="B289" t="n">
-        <v>2.291462659835815</v>
+        <v>2.30169153213501</v>
       </c>
       <c r="C289" t="n">
         <v>2.317</v>
@@ -3623,7 +3623,7 @@
         <v>1118.95</v>
       </c>
       <c r="B290" t="n">
-        <v>2.289477586746216</v>
+        <v>2.298291921615601</v>
       </c>
       <c r="C290" t="n">
         <v>2.301</v>
@@ -3634,7 +3634,7 @@
         <v>1119</v>
       </c>
       <c r="B291" t="n">
-        <v>2.297000885009766</v>
+        <v>2.299755334854126</v>
       </c>
       <c r="C291" t="n">
         <v>2.289</v>
@@ -3645,7 +3645,7 @@
         <v>1119.05</v>
       </c>
       <c r="B292" t="n">
-        <v>2.30193829536438</v>
+        <v>2.301864624023438</v>
       </c>
       <c r="C292" t="n">
         <v>2.281</v>
@@ -3656,7 +3656,7 @@
         <v>1119.1</v>
       </c>
       <c r="B293" t="n">
-        <v>2.3000328540802</v>
+        <v>2.301226615905762</v>
       </c>
       <c r="C293" t="n">
         <v>2.279</v>
@@ -3667,7 +3667,7 @@
         <v>1119.15</v>
       </c>
       <c r="B294" t="n">
-        <v>2.295071125030518</v>
+        <v>2.298353672027588</v>
       </c>
       <c r="C294" t="n">
         <v>2.275</v>
@@ -3678,7 +3678,7 @@
         <v>1119.2</v>
       </c>
       <c r="B295" t="n">
-        <v>2.292283058166504</v>
+        <v>2.295924663543701</v>
       </c>
       <c r="C295" t="n">
         <v>2.27</v>
@@ -3689,7 +3689,7 @@
         <v>1119.25</v>
       </c>
       <c r="B296" t="n">
-        <v>2.29161810874939</v>
+        <v>2.294784545898438</v>
       </c>
       <c r="C296" t="n">
         <v>2.263</v>
@@ -3700,7 +3700,7 @@
         <v>1119.3</v>
       </c>
       <c r="B297" t="n">
-        <v>2.291091203689575</v>
+        <v>2.29391622543335</v>
       </c>
       <c r="C297" t="n">
         <v>2.255</v>
@@ -3711,7 +3711,7 @@
         <v>1119.35</v>
       </c>
       <c r="B298" t="n">
-        <v>2.284118413925171</v>
+        <v>2.28973126411438</v>
       </c>
       <c r="C298" t="n">
         <v>2.25</v>
@@ -3722,7 +3722,7 @@
         <v>1119.4</v>
       </c>
       <c r="B299" t="n">
-        <v>2.274527311325073</v>
+        <v>2.283051490783691</v>
       </c>
       <c r="C299" t="n">
         <v>2.244</v>
@@ -3733,7 +3733,7 @@
         <v>1119.45</v>
       </c>
       <c r="B300" t="n">
-        <v>2.274486303329468</v>
+        <v>2.280518770217896</v>
       </c>
       <c r="C300" t="n">
         <v>2.248</v>
@@ -3744,7 +3744,7 @@
         <v>1119.5</v>
       </c>
       <c r="B301" t="n">
-        <v>2.282101631164551</v>
+        <v>2.283329963684082</v>
       </c>
       <c r="C301" t="n">
         <v>2.255</v>
@@ -3755,7 +3755,7 @@
         <v>1119.55</v>
       </c>
       <c r="B302" t="n">
-        <v>2.286141872406006</v>
+        <v>2.286468505859375</v>
       </c>
       <c r="C302" t="n">
         <v>2.276</v>
@@ -3766,7 +3766,7 @@
         <v>1119.6</v>
       </c>
       <c r="B303" t="n">
-        <v>2.292877197265625</v>
+        <v>2.291046857833862</v>
       </c>
       <c r="C303" t="n">
         <v>2.302</v>
@@ -3777,7 +3777,7 @@
         <v>1119.65</v>
       </c>
       <c r="B304" t="n">
-        <v>2.298396348953247</v>
+        <v>2.295623540878296</v>
       </c>
       <c r="C304" t="n">
         <v>2.325</v>
@@ -3788,7 +3788,7 @@
         <v>1119.7</v>
       </c>
       <c r="B305" t="n">
-        <v>2.302887201309204</v>
+        <v>2.299972534179688</v>
       </c>
       <c r="C305" t="n">
         <v>2.345</v>
@@ -3799,7 +3799,7 @@
         <v>1119.75</v>
       </c>
       <c r="B306" t="n">
-        <v>2.304743528366089</v>
+        <v>2.303107261657715</v>
       </c>
       <c r="C306" t="n">
         <v>2.342</v>
@@ -3810,7 +3810,7 @@
         <v>1119.8</v>
       </c>
       <c r="B307" t="n">
-        <v>2.30206823348999</v>
+        <v>2.303552865982056</v>
       </c>
       <c r="C307" t="n">
         <v>2.338</v>
@@ -3821,7 +3821,7 @@
         <v>1119.85</v>
       </c>
       <c r="B308" t="n">
-        <v>2.302234888076782</v>
+        <v>2.304263353347778</v>
       </c>
       <c r="C308" t="n">
         <v>2.33</v>
@@ -3832,7 +3832,7 @@
         <v>1119.9</v>
       </c>
       <c r="B309" t="n">
-        <v>2.29584264755249</v>
+        <v>2.301933288574219</v>
       </c>
       <c r="C309" t="n">
         <v>2.315</v>
@@ -3843,7 +3843,7 @@
         <v>1119.95</v>
       </c>
       <c r="B310" t="n">
-        <v>2.290592193603516</v>
+        <v>2.298699617385864</v>
       </c>
       <c r="C310" t="n">
         <v>2.311</v>
@@ -3854,7 +3854,7 @@
         <v>1120</v>
       </c>
       <c r="B311" t="n">
-        <v>2.285555601119995</v>
+        <v>2.294820070266724</v>
       </c>
       <c r="C311" t="n">
         <v>2.314</v>
@@ -3865,7 +3865,7 @@
         <v>1120.05</v>
       </c>
       <c r="B312" t="n">
-        <v>2.279624223709106</v>
+        <v>2.289964914321899</v>
       </c>
       <c r="C312" t="n">
         <v>2.336</v>
@@ -3876,7 +3876,7 @@
         <v>1120.1</v>
       </c>
       <c r="B313" t="n">
-        <v>2.277714729309082</v>
+        <v>2.286338329315186</v>
       </c>
       <c r="C313" t="n">
         <v>2.36</v>
@@ -3887,7 +3887,7 @@
         <v>1120.15</v>
       </c>
       <c r="B314" t="n">
-        <v>2.286999940872192</v>
+        <v>2.288319826126099</v>
       </c>
       <c r="C314" t="n">
         <v>2.377</v>
@@ -3898,7 +3898,7 @@
         <v>1120.2</v>
       </c>
       <c r="B315" t="n">
-        <v>2.301773548126221</v>
+        <v>2.295505523681641</v>
       </c>
       <c r="C315" t="n">
         <v>2.374</v>
@@ -3909,7 +3909,7 @@
         <v>1120.25</v>
       </c>
       <c r="B316" t="n">
-        <v>2.303176879882812</v>
+        <v>2.299078464508057</v>
       </c>
       <c r="C316" t="n">
         <v>2.365</v>
